--- a/data/raw/Average_Price_Eggs_Grade_A_Large_Cost_per_Dozen_in_US_City_Average_data.xlsx
+++ b/data/raw/Average_Price_Eggs_Grade_A_Large_Cost_per_Dozen_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,75 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.350</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -1918,7 +1849,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1929,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1943,10 +1874,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1888,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1971,10 +1902,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1985,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2013,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -2027,10 +1958,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -2041,10 +1972,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2143,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -2223,10 +2154,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2237,10 +2168,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2251,10 +2182,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2265,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -2279,10 +2210,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2293,10 +2224,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2307,10 +2238,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -2321,10 +2252,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2335,10 +2266,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2349,10 +2280,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -2363,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -2377,10 +2308,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -2391,10 +2322,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -2405,10 +2336,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -2419,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
@@ -2433,10 +2364,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -2447,10 +2378,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -2461,10 +2392,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
@@ -2475,10 +2406,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -2489,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -2503,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -2517,10 +2448,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -2531,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
@@ -2545,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -2559,10 +2490,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
@@ -2573,10 +2504,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -2587,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -2601,10 +2532,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
@@ -2615,10 +2546,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -2629,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -2643,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -2657,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -2671,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -2685,10 +2616,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -2699,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69">
@@ -2713,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
@@ -2727,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -2741,10 +2672,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -2755,10 +2686,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -2769,10 +2700,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -2783,10 +2714,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -2797,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
@@ -2811,10 +2742,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
@@ -2982,7 +2913,7 @@
         <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -2993,10 +2924,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90">
@@ -3007,10 +2938,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
@@ -3021,10 +2952,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92">
@@ -3035,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
@@ -3049,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
@@ -3080,7 +3011,7 @@
         <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96">
@@ -3091,10 +3022,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97">
@@ -3105,10 +3036,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
@@ -3119,10 +3050,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99">
@@ -3133,10 +3064,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
@@ -3147,10 +3078,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
@@ -3161,10 +3092,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
@@ -3175,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
@@ -3189,10 +3120,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
@@ -3203,10 +3134,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
@@ -3217,10 +3148,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
@@ -3231,10 +3162,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" t="s">
         <v>209</v>
-      </c>
-      <c r="D106" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107">
@@ -3245,10 +3176,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
         <v>211</v>
-      </c>
-      <c r="D107" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="108">
@@ -3262,7 +3193,7 @@
         <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109">
@@ -3273,10 +3204,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110">
@@ -3287,10 +3218,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111">
@@ -3301,10 +3232,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112">
@@ -3315,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
@@ -3329,10 +3260,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114">
@@ -3343,10 +3274,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115">
@@ -3357,10 +3288,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116">
@@ -3371,10 +3302,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" t="s">
         <v>227</v>
-      </c>
-      <c r="D116" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="117">
@@ -3500,7 +3431,7 @@
         <v>245</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
@@ -3511,10 +3442,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
         <v>247</v>
-      </c>
-      <c r="D126" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="127">
@@ -3525,10 +3456,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
+        <v>248</v>
+      </c>
+      <c r="D127" t="s">
         <v>249</v>
-      </c>
-      <c r="D127" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="128">
@@ -3539,10 +3470,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
+        <v>250</v>
+      </c>
+      <c r="D128" t="s">
         <v>251</v>
-      </c>
-      <c r="D128" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="129">
@@ -3668,7 +3599,7 @@
         <v>268</v>
       </c>
       <c r="D137" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138">
@@ -3679,10 +3610,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139">
@@ -3693,10 +3624,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="140">
@@ -3707,10 +3638,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141">
@@ -3721,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142">
@@ -3735,10 +3666,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143">
@@ -3749,10 +3680,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144">
@@ -3763,10 +3694,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145">
@@ -3777,10 +3708,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146">
@@ -3791,10 +3722,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147">
@@ -3805,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148">
@@ -3819,10 +3750,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149">
@@ -3833,10 +3764,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D149" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150">
@@ -3948,7 +3879,7 @@
         <v>307</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158">
@@ -3959,10 +3890,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
+        <v>308</v>
+      </c>
+      <c r="D158" t="s">
         <v>309</v>
-      </c>
-      <c r="D158" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="159">
@@ -3973,10 +3904,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
+        <v>310</v>
+      </c>
+      <c r="D159" t="s">
         <v>311</v>
-      </c>
-      <c r="D159" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="160">
@@ -3987,10 +3918,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
+        <v>312</v>
+      </c>
+      <c r="D160" t="s">
         <v>313</v>
-      </c>
-      <c r="D160" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="161">
@@ -4001,10 +3932,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
+        <v>314</v>
+      </c>
+      <c r="D161" t="s">
         <v>315</v>
-      </c>
-      <c r="D161" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="162">
@@ -4074,7 +4005,7 @@
         <v>324</v>
       </c>
       <c r="D166" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167">
@@ -4085,10 +4016,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
+        <v>325</v>
+      </c>
+      <c r="D167" t="s">
         <v>326</v>
-      </c>
-      <c r="D167" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="168">
@@ -4099,10 +4030,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
+        <v>327</v>
+      </c>
+      <c r="D168" t="s">
         <v>328</v>
-      </c>
-      <c r="D168" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="169">
@@ -4113,10 +4044,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
+        <v>329</v>
+      </c>
+      <c r="D169" t="s">
         <v>330</v>
-      </c>
-      <c r="D169" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="170">
@@ -4144,7 +4075,7 @@
         <v>333</v>
       </c>
       <c r="D171" t="s">
-        <v>334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
@@ -4155,10 +4086,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
+        <v>334</v>
+      </c>
+      <c r="D172" t="s">
         <v>335</v>
-      </c>
-      <c r="D172" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="173">
@@ -4169,10 +4100,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
+        <v>336</v>
+      </c>
+      <c r="D173" t="s">
         <v>337</v>
-      </c>
-      <c r="D173" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="174">
@@ -4183,10 +4114,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
+        <v>338</v>
+      </c>
+      <c r="D174" t="s">
         <v>339</v>
-      </c>
-      <c r="D174" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="175">
@@ -4197,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D175" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
     </row>
     <row r="176">
@@ -4211,10 +4142,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="177">
@@ -4225,10 +4156,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D177" t="s">
-        <v>346</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -4239,10 +4170,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D178" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179">
@@ -4253,10 +4184,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180">
@@ -4267,10 +4198,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="181">
@@ -4281,10 +4212,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182">
@@ -4295,10 +4226,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="183">
@@ -4309,10 +4240,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184">
@@ -4323,10 +4254,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
+        <v>356</v>
+      </c>
+      <c r="D184" t="s">
         <v>357</v>
-      </c>
-      <c r="D184" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="185">
@@ -4337,10 +4268,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
+        <v>358</v>
+      </c>
+      <c r="D185" t="s">
         <v>359</v>
-      </c>
-      <c r="D185" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="186">
@@ -4351,10 +4282,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D186" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187">
@@ -4365,10 +4296,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D187" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188">
@@ -4379,10 +4310,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189">
@@ -4393,10 +4324,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190">
@@ -4407,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
+        <v>366</v>
+      </c>
+      <c r="D190" t="s">
         <v>367</v>
-      </c>
-      <c r="D190" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="191">
@@ -4421,10 +4352,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
+        <v>368</v>
+      </c>
+      <c r="D191" t="s">
         <v>369</v>
-      </c>
-      <c r="D191" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="192">
@@ -4435,10 +4366,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>370</v>
+      </c>
+      <c r="D192" t="s">
         <v>371</v>
-      </c>
-      <c r="D192" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="193">
@@ -4449,10 +4380,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>372</v>
+      </c>
+      <c r="D193" t="s">
         <v>373</v>
-      </c>
-      <c r="D193" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="194">
@@ -4463,10 +4394,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
+        <v>374</v>
+      </c>
+      <c r="D194" t="s">
         <v>375</v>
-      </c>
-      <c r="D194" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="195">
@@ -4477,10 +4408,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
+        <v>376</v>
+      </c>
+      <c r="D195" t="s">
         <v>377</v>
-      </c>
-      <c r="D195" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="196">
@@ -4491,10 +4422,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
+        <v>378</v>
+      </c>
+      <c r="D196" t="s">
         <v>379</v>
-      </c>
-      <c r="D196" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="197">
@@ -4505,10 +4436,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
+        <v>380</v>
+      </c>
+      <c r="D197" t="s">
         <v>381</v>
-      </c>
-      <c r="D197" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="198">
@@ -4519,10 +4450,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
+        <v>382</v>
+      </c>
+      <c r="D198" t="s">
         <v>383</v>
-      </c>
-      <c r="D198" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="199">
@@ -4550,7 +4481,7 @@
         <v>386</v>
       </c>
       <c r="D200" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201">
@@ -4561,10 +4492,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D201" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202">
@@ -4575,10 +4506,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D202" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203">
@@ -4589,10 +4520,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204">
@@ -4603,10 +4534,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D204" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205">
@@ -4617,10 +4548,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D205" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206">
@@ -4631,10 +4562,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207">
@@ -4645,10 +4576,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D207" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208">
@@ -4659,10 +4590,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D208" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="209">
@@ -4673,10 +4604,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D209" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210">
@@ -4687,10 +4618,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="211">
@@ -4701,10 +4632,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D211" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212">
@@ -4715,10 +4646,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="213">
@@ -4729,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D213" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="214">
@@ -4743,10 +4674,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D214" t="s">
-        <v>414</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215">
@@ -4914,7 +4845,7 @@
         <v>437</v>
       </c>
       <c r="D226" t="s">
-        <v>246</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227">
@@ -4925,10 +4856,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D227" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228">
@@ -4939,10 +4870,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D228" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229">
@@ -4953,10 +4884,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D229" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="230">
@@ -4967,178 +4898,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D230" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
         <v>446</v>
-      </c>
-      <c r="D231" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>448</v>
-      </c>
-      <c r="D232" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>450</v>
-      </c>
-      <c r="D233" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>454</v>
-      </c>
-      <c r="D235" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>456</v>
-      </c>
-      <c r="D236" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>458</v>
-      </c>
-      <c r="D237" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>460</v>
-      </c>
-      <c r="D238" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>462</v>
-      </c>
-      <c r="D239" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>464</v>
-      </c>
-      <c r="D240" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>466</v>
-      </c>
-      <c r="D241" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>468</v>
-      </c>
-      <c r="D242" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
